--- a/Code/Results/Cases/Case_3_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021588977964557</v>
+        <v>1.066563650209148</v>
       </c>
       <c r="D2">
-        <v>1.03805311601588</v>
+        <v>1.066085238253936</v>
       </c>
       <c r="E2">
-        <v>1.033736685810615</v>
+        <v>1.070818463736863</v>
       </c>
       <c r="F2">
-        <v>1.043204540228725</v>
+        <v>1.079822210036905</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055833422681356</v>
+        <v>1.04687957465538</v>
       </c>
       <c r="J2">
-        <v>1.043142597783608</v>
+        <v>1.071513011321767</v>
       </c>
       <c r="K2">
-        <v>1.049006593524019</v>
+        <v>1.068796736202118</v>
       </c>
       <c r="L2">
-        <v>1.044745202033566</v>
+        <v>1.073517287388646</v>
       </c>
       <c r="M2">
-        <v>1.054093075413691</v>
+        <v>1.082497255433946</v>
       </c>
       <c r="N2">
-        <v>1.044623979922589</v>
+        <v>1.073034682702104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.02953569212719</v>
+        <v>1.068139078074619</v>
       </c>
       <c r="D3">
-        <v>1.044158138168143</v>
+        <v>1.067295218899686</v>
       </c>
       <c r="E3">
-        <v>1.040515676710228</v>
+        <v>1.072202789482804</v>
       </c>
       <c r="F3">
-        <v>1.050153635187283</v>
+        <v>1.081242621272449</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058449080311821</v>
+        <v>1.047276844753416</v>
       </c>
       <c r="J3">
-        <v>1.049252333848577</v>
+        <v>1.072741523228966</v>
       </c>
       <c r="K3">
-        <v>1.054255543012609</v>
+        <v>1.069821256481318</v>
       </c>
       <c r="L3">
-        <v>1.050655124634323</v>
+        <v>1.074716644213259</v>
       </c>
       <c r="M3">
-        <v>1.06018262015299</v>
+        <v>1.083734346252194</v>
       </c>
       <c r="N3">
-        <v>1.050742392513567</v>
+        <v>1.074264939237124</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034520975456863</v>
+        <v>1.069156995402744</v>
       </c>
       <c r="D4">
-        <v>1.04798965950583</v>
+        <v>1.068076600552439</v>
       </c>
       <c r="E4">
-        <v>1.044773974627449</v>
+        <v>1.07309736029562</v>
       </c>
       <c r="F4">
-        <v>1.054519397203164</v>
+        <v>1.082160564131754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060074221199273</v>
+        <v>1.047531545720008</v>
       </c>
       <c r="J4">
-        <v>1.053081035738624</v>
+        <v>1.073534558982527</v>
       </c>
       <c r="K4">
-        <v>1.057541439357215</v>
+        <v>1.070482064529698</v>
       </c>
       <c r="L4">
-        <v>1.054360457470218</v>
+        <v>1.075490993015607</v>
       </c>
       <c r="M4">
-        <v>1.064001506434081</v>
+        <v>1.084533137683098</v>
       </c>
       <c r="N4">
-        <v>1.054576531599456</v>
+        <v>1.075059101192417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036581427440243</v>
+        <v>1.069584579455635</v>
       </c>
       <c r="D5">
-        <v>1.04957351820908</v>
+        <v>1.068404726126916</v>
       </c>
       <c r="E5">
-        <v>1.046535195993717</v>
+        <v>1.07347316165021</v>
       </c>
       <c r="F5">
-        <v>1.05632520293122</v>
+        <v>1.082546196440489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060742047633211</v>
+        <v>1.04763805949215</v>
       </c>
       <c r="J5">
-        <v>1.05466239135163</v>
+        <v>1.073867504087265</v>
       </c>
       <c r="K5">
-        <v>1.058897758946739</v>
+        <v>1.070759364566207</v>
       </c>
       <c r="L5">
-        <v>1.055891287994119</v>
+        <v>1.075816124526414</v>
       </c>
       <c r="M5">
-        <v>1.065579464732179</v>
+        <v>1.084868551137818</v>
       </c>
       <c r="N5">
-        <v>1.056160132918816</v>
+        <v>1.075392519117393</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.036925372420443</v>
+        <v>1.069656352509453</v>
       </c>
       <c r="D6">
-        <v>1.049837919142423</v>
+        <v>1.068459798474254</v>
       </c>
       <c r="E6">
-        <v>1.046829261342636</v>
+        <v>1.073536244339181</v>
       </c>
       <c r="F6">
-        <v>1.056626720214459</v>
+        <v>1.082610930103426</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060853297040195</v>
+        <v>1.047655910704086</v>
       </c>
       <c r="J6">
-        <v>1.054926297106257</v>
+        <v>1.073923380995274</v>
       </c>
       <c r="K6">
-        <v>1.059124058967642</v>
+        <v>1.070805895074229</v>
       </c>
       <c r="L6">
-        <v>1.056146786741951</v>
+        <v>1.075870691975519</v>
       </c>
       <c r="M6">
-        <v>1.065842841496569</v>
+        <v>1.084924845337418</v>
       </c>
       <c r="N6">
-        <v>1.056424413449885</v>
+        <v>1.07544847537702</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0345486435321</v>
+        <v>1.069162710160498</v>
       </c>
       <c r="D7">
-        <v>1.04801092691668</v>
+        <v>1.068080986418885</v>
       </c>
       <c r="E7">
-        <v>1.044797619814135</v>
+        <v>1.073102382849143</v>
       </c>
       <c r="F7">
-        <v>1.054543640422506</v>
+        <v>1.082165718025963</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060083204235033</v>
+        <v>1.047532971169701</v>
       </c>
       <c r="J7">
-        <v>1.053102274772211</v>
+        <v>1.073539009560563</v>
       </c>
       <c r="K7">
-        <v>1.057559659330009</v>
+        <v>1.070485771799173</v>
       </c>
       <c r="L7">
-        <v>1.054381016221524</v>
+        <v>1.075495339021771</v>
       </c>
       <c r="M7">
-        <v>1.064022697268148</v>
+        <v>1.08453762105251</v>
       </c>
       <c r="N7">
-        <v>1.054597800794908</v>
+        <v>1.075063558090784</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024308436459798</v>
+        <v>1.067096386912575</v>
       </c>
       <c r="D8">
-        <v>1.040141910583614</v>
+        <v>1.066494482479499</v>
       </c>
       <c r="E8">
-        <v>1.036055294900545</v>
+        <v>1.071286551401341</v>
       </c>
       <c r="F8">
-        <v>1.045581194898378</v>
+        <v>1.080302488341335</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056731813735103</v>
+        <v>1.047014323866277</v>
       </c>
       <c r="J8">
-        <v>1.045234256343895</v>
+        <v>1.071928588501129</v>
       </c>
       <c r="K8">
-        <v>1.050804260401044</v>
+        <v>1.06914342070798</v>
       </c>
       <c r="L8">
-        <v>1.046768056278775</v>
+        <v>1.073922974367812</v>
       </c>
       <c r="M8">
-        <v>1.056177206357793</v>
+        <v>1.082915689358858</v>
       </c>
       <c r="N8">
-        <v>1.046718608877948</v>
+        <v>1.073450850048728</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004954459813912</v>
+        <v>1.063443478731376</v>
       </c>
       <c r="D9">
-        <v>1.025288786366488</v>
+        <v>1.063686693299737</v>
       </c>
       <c r="E9">
-        <v>1.019582914790322</v>
+        <v>1.068077495135307</v>
       </c>
       <c r="F9">
-        <v>1.02869950405719</v>
+        <v>1.077010081093713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05027308483515</v>
+        <v>1.046082226498904</v>
       </c>
       <c r="J9">
-        <v>1.0303334682897</v>
+        <v>1.069076038938988</v>
       </c>
       <c r="K9">
-        <v>1.0379844748938</v>
+        <v>1.066761522139694</v>
       </c>
       <c r="L9">
-        <v>1.032366066409991</v>
+        <v>1.071138864171428</v>
       </c>
       <c r="M9">
-        <v>1.041343501146823</v>
+        <v>1.080044436885525</v>
       </c>
       <c r="N9">
-        <v>1.031796659995571</v>
+        <v>1.070594249539017</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9909987305416045</v>
+        <v>1.060999762150454</v>
       </c>
       <c r="D10">
-        <v>1.01460167131754</v>
+        <v>1.061806310102497</v>
       </c>
       <c r="E10">
-        <v>1.007748032295207</v>
+        <v>1.065931446875804</v>
       </c>
       <c r="F10">
-        <v>1.016575027725147</v>
+        <v>1.074808579832095</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045536418085236</v>
+        <v>1.045448460490522</v>
       </c>
       <c r="J10">
-        <v>1.019574086864727</v>
+        <v>1.067164007983881</v>
       </c>
       <c r="K10">
-        <v>1.028712199566546</v>
+        <v>1.065162170622696</v>
       </c>
       <c r="L10">
-        <v>1.02197878872493</v>
+        <v>1.069273405398054</v>
       </c>
       <c r="M10">
-        <v>1.030651327758705</v>
+        <v>1.078121018869991</v>
       </c>
       <c r="N10">
-        <v>1.021021999014857</v>
+        <v>1.068679503280641</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9846600826856875</v>
+        <v>1.059939486098726</v>
       </c>
       <c r="D11">
-        <v>1.00975571234617</v>
+        <v>1.060989984414047</v>
       </c>
       <c r="E11">
-        <v>1.002385098667401</v>
+        <v>1.065000509691653</v>
       </c>
       <c r="F11">
-        <v>1.011082132326868</v>
+        <v>1.073853657822489</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043367606216603</v>
+        <v>1.045171065816826</v>
       </c>
       <c r="J11">
-        <v>1.014685243616608</v>
+        <v>1.066333538948277</v>
       </c>
       <c r="K11">
-        <v>1.024495965850096</v>
+        <v>1.064466852789643</v>
       </c>
       <c r="L11">
-        <v>1.017262175256735</v>
+        <v>1.068463331196344</v>
       </c>
       <c r="M11">
-        <v>1.025798038883436</v>
+        <v>1.077285879842455</v>
       </c>
       <c r="N11">
-        <v>1.016126213048568</v>
+        <v>1.06784785488375</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.982256612071755</v>
+        <v>1.059545322109272</v>
       </c>
       <c r="D12">
-        <v>1.007919703986674</v>
+        <v>1.060686441343392</v>
       </c>
       <c r="E12">
-        <v>1.000353681304727</v>
+        <v>1.064654457243028</v>
       </c>
       <c r="F12">
-        <v>1.00900169694258</v>
+        <v>1.073498700330574</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042542762460519</v>
+        <v>1.045067579936963</v>
       </c>
       <c r="J12">
-        <v>1.012831360950184</v>
+        <v>1.06602467543129</v>
       </c>
       <c r="K12">
-        <v>1.022896731747027</v>
+        <v>1.064208155568148</v>
       </c>
       <c r="L12">
-        <v>1.015474108474503</v>
+        <v>1.068162077965917</v>
       </c>
       <c r="M12">
-        <v>1.023958447048888</v>
+        <v>1.076975321207296</v>
       </c>
       <c r="N12">
-        <v>1.014269697656115</v>
+        <v>1.067538552745142</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9827744635533864</v>
+        <v>1.059629886731578</v>
       </c>
       <c r="D13">
-        <v>1.008315219477551</v>
+        <v>1.060751567104429</v>
       </c>
       <c r="E13">
-        <v>1.000791272412412</v>
+        <v>1.06472869860317</v>
       </c>
       <c r="F13">
-        <v>1.009449837287758</v>
+        <v>1.073574851672586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042720592670423</v>
+        <v>1.045089798382272</v>
       </c>
       <c r="J13">
-        <v>1.013230802199639</v>
+        <v>1.066090945491867</v>
       </c>
       <c r="K13">
-        <v>1.02324132341712</v>
+        <v>1.064263666344824</v>
       </c>
       <c r="L13">
-        <v>1.015859345560614</v>
+        <v>1.068226714016331</v>
       </c>
       <c r="M13">
-        <v>1.02435477174186</v>
+        <v>1.077041953082086</v>
       </c>
       <c r="N13">
-        <v>1.014669706157959</v>
+        <v>1.067604916916806</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9844624398077543</v>
+        <v>1.059906911176495</v>
       </c>
       <c r="D14">
-        <v>1.009604701862178</v>
+        <v>1.060964900084943</v>
       </c>
       <c r="E14">
-        <v>1.002218006988885</v>
+        <v>1.064971910257129</v>
       </c>
       <c r="F14">
-        <v>1.010911004353525</v>
+        <v>1.073824322213067</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043299826826684</v>
+        <v>1.045162520821441</v>
       </c>
       <c r="J14">
-        <v>1.014532796614634</v>
+        <v>1.066308016201096</v>
       </c>
       <c r="K14">
-        <v>1.02436446685937</v>
+        <v>1.064445477507846</v>
       </c>
       <c r="L14">
-        <v>1.017115129941088</v>
+        <v>1.068438436807059</v>
       </c>
       <c r="M14">
-        <v>1.025646750312615</v>
+        <v>1.07726021616789</v>
       </c>
       <c r="N14">
-        <v>1.015973549554365</v>
+        <v>1.06782229589134</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9854958144314124</v>
+        <v>1.060077551012977</v>
       </c>
       <c r="D15">
-        <v>1.010394320510639</v>
+        <v>1.061096298523217</v>
       </c>
       <c r="E15">
-        <v>1.003091730862978</v>
+        <v>1.065121726170926</v>
       </c>
       <c r="F15">
-        <v>1.011805842704217</v>
+        <v>1.073977994961311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043654111131497</v>
+        <v>1.045207267910769</v>
       </c>
       <c r="J15">
-        <v>1.015329859925973</v>
+        <v>1.066441708674532</v>
       </c>
       <c r="K15">
-        <v>1.025051988015065</v>
+        <v>1.064557440829529</v>
       </c>
       <c r="L15">
-        <v>1.017883971454778</v>
+        <v>1.06856883886546</v>
       </c>
       <c r="M15">
-        <v>1.026437789981572</v>
+        <v>1.077394648552125</v>
       </c>
       <c r="N15">
-        <v>1.016771744787031</v>
+        <v>1.067956178223423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9914127983768716</v>
+        <v>1.061070083425307</v>
       </c>
       <c r="D16">
-        <v>1.01491841801378</v>
+        <v>1.061860441975018</v>
       </c>
       <c r="E16">
-        <v>1.008098636716756</v>
+        <v>1.065993193954658</v>
       </c>
       <c r="F16">
-        <v>1.016934156255166</v>
+        <v>1.074871919265396</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045677745357734</v>
+        <v>1.045466807438392</v>
       </c>
       <c r="J16">
-        <v>1.019893418776526</v>
+        <v>1.067219069161906</v>
       </c>
       <c r="K16">
-        <v>1.02898753814634</v>
+        <v>1.065208257295684</v>
       </c>
       <c r="L16">
-        <v>1.022286938534312</v>
+        <v>1.069327117889296</v>
       </c>
       <c r="M16">
-        <v>1.030968445380249</v>
+        <v>1.078176395502955</v>
       </c>
       <c r="N16">
-        <v>1.021341784414599</v>
+        <v>1.068734642651855</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9950421528308017</v>
+        <v>1.061692095210015</v>
       </c>
       <c r="D17">
-        <v>1.017695679598048</v>
+        <v>1.062339200023303</v>
       </c>
       <c r="E17">
-        <v>1.011173149854644</v>
+        <v>1.066539386220305</v>
       </c>
       <c r="F17">
-        <v>1.020083563746895</v>
+        <v>1.07543220504439</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046914547898675</v>
+        <v>1.045628812539164</v>
       </c>
       <c r="J17">
-        <v>1.022692196101901</v>
+        <v>1.06770599954731</v>
       </c>
       <c r="K17">
-        <v>1.031400393869356</v>
+        <v>1.065615746363558</v>
       </c>
       <c r="L17">
-        <v>1.024988068940926</v>
+        <v>1.069802140483109</v>
       </c>
       <c r="M17">
-        <v>1.033748386230197</v>
+        <v>1.078666147446314</v>
       </c>
       <c r="N17">
-        <v>1.024144536324799</v>
+        <v>1.069222264534257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.997130902599862</v>
+        <v>1.062054699274124</v>
       </c>
       <c r="D18">
-        <v>1.019294777755086</v>
+        <v>1.062618248623853</v>
       </c>
       <c r="E18">
-        <v>1.012943729984482</v>
+        <v>1.066857808972318</v>
       </c>
       <c r="F18">
-        <v>1.021897392266748</v>
+        <v>1.07575885088111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047624702968089</v>
+        <v>1.045723021032231</v>
       </c>
       <c r="J18">
-        <v>1.024302740892805</v>
+        <v>1.067989772575552</v>
       </c>
       <c r="K18">
-        <v>1.032788567089272</v>
+        <v>1.065853159266049</v>
       </c>
       <c r="L18">
-        <v>1.026542716541954</v>
+        <v>1.070078989946151</v>
       </c>
       <c r="M18">
-        <v>1.035348557942039</v>
+        <v>1.078951591369044</v>
       </c>
       <c r="N18">
-        <v>1.025757368274039</v>
+        <v>1.069506440552749</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9978384594681676</v>
+        <v>1.062178303442791</v>
       </c>
       <c r="D19">
-        <v>1.01983658554858</v>
+        <v>1.062713362778476</v>
       </c>
       <c r="E19">
-        <v>1.013543697104721</v>
+        <v>1.066966355669457</v>
       </c>
       <c r="F19">
-        <v>1.022512033642203</v>
+        <v>1.075870201875295</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047864982856921</v>
+        <v>1.045755095214499</v>
       </c>
       <c r="J19">
-        <v>1.024848270240261</v>
+        <v>1.068086490481154</v>
       </c>
       <c r="K19">
-        <v>1.033258722429983</v>
+        <v>1.06593406556604</v>
       </c>
       <c r="L19">
-        <v>1.02706936109549</v>
+        <v>1.070173350823663</v>
       </c>
       <c r="M19">
-        <v>1.03589065127924</v>
+        <v>1.079048883257651</v>
       </c>
       <c r="N19">
-        <v>1.026303672335741</v>
+        <v>1.06960329580887</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9946557044773643</v>
+        <v>1.061625380498045</v>
       </c>
       <c r="D20">
-        <v>1.017399882115816</v>
+        <v>1.062287854848319</v>
       </c>
       <c r="E20">
-        <v>1.010845659169791</v>
+        <v>1.066480801768462</v>
       </c>
       <c r="F20">
-        <v>1.01974808312694</v>
+        <v>1.075372108225569</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046783024962479</v>
+        <v>1.045611460564179</v>
       </c>
       <c r="J20">
-        <v>1.022394205653034</v>
+        <v>1.067653781945885</v>
       </c>
       <c r="K20">
-        <v>1.03114352338318</v>
+        <v>1.065572054469121</v>
       </c>
       <c r="L20">
-        <v>1.02470044441461</v>
+        <v>1.069751198191834</v>
       </c>
       <c r="M20">
-        <v>1.033452352485983</v>
+        <v>1.078613624516771</v>
       </c>
       <c r="N20">
-        <v>1.023846122695316</v>
+        <v>1.069169972777849</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.983966766054424</v>
+        <v>1.059825343580683</v>
       </c>
       <c r="D21">
-        <v>1.009226003229381</v>
+        <v>1.060902087820328</v>
       </c>
       <c r="E21">
-        <v>1.001798987679555</v>
+        <v>1.064900297753655</v>
       </c>
       <c r="F21">
-        <v>1.010481866590275</v>
+        <v>1.07375086651358</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04312980176574</v>
+        <v>1.045141118298291</v>
       </c>
       <c r="J21">
-        <v>1.014150469000141</v>
+        <v>1.066244105124878</v>
       </c>
       <c r="K21">
-        <v>1.024034669176762</v>
+        <v>1.064391950441208</v>
       </c>
       <c r="L21">
-        <v>1.016746357653922</v>
+        <v>1.068376099597664</v>
       </c>
       <c r="M21">
-        <v>1.025267341162036</v>
+        <v>1.077195952872507</v>
       </c>
       <c r="N21">
-        <v>1.015590678990805</v>
+        <v>1.067758294054063</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9769598424449309</v>
+        <v>1.058691673088401</v>
       </c>
       <c r="D22">
-        <v>1.003876527926966</v>
+        <v>1.060028926819788</v>
       </c>
       <c r="E22">
-        <v>0.9958809574523367</v>
+        <v>1.06390505853464</v>
       </c>
       <c r="F22">
-        <v>1.004421458120269</v>
+        <v>1.072730036953697</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040720561991851</v>
+        <v>1.044842795331121</v>
       </c>
       <c r="J22">
-        <v>1.008745690334251</v>
+        <v>1.065355523117308</v>
       </c>
       <c r="K22">
-        <v>1.019371579224351</v>
+        <v>1.063647508831063</v>
       </c>
       <c r="L22">
-        <v>1.011534457403052</v>
+        <v>1.067509459456978</v>
       </c>
       <c r="M22">
-        <v>1.019905830991277</v>
+        <v>1.076302573060482</v>
       </c>
       <c r="N22">
-        <v>1.010178224919273</v>
+        <v>1.066868450158121</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9807032005362633</v>
+        <v>1.059292838274059</v>
       </c>
       <c r="D23">
-        <v>1.006733503172147</v>
+        <v>1.060491985916669</v>
       </c>
       <c r="E23">
-        <v>0.999041352606605</v>
+        <v>1.064432799804379</v>
       </c>
       <c r="F23">
-        <v>1.007657763693874</v>
+        <v>1.073271341968407</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042008969039286</v>
+        <v>1.045001189439153</v>
       </c>
       <c r="J23">
-        <v>1.011633138878586</v>
+        <v>1.065826794266327</v>
       </c>
       <c r="K23">
-        <v>1.021862989113917</v>
+        <v>1.064042387044356</v>
       </c>
       <c r="L23">
-        <v>1.014318571997306</v>
+        <v>1.067969079615733</v>
       </c>
       <c r="M23">
-        <v>1.022769696976595</v>
+        <v>1.076776365802369</v>
       </c>
       <c r="N23">
-        <v>1.013069773971737</v>
+        <v>1.067340390566227</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9948304106341318</v>
+        <v>1.061655526637965</v>
       </c>
       <c r="D24">
-        <v>1.01753360440491</v>
+        <v>1.062311056149868</v>
       </c>
       <c r="E24">
-        <v>1.010993708095942</v>
+        <v>1.066507274061188</v>
       </c>
       <c r="F24">
-        <v>1.019899743704577</v>
+        <v>1.075399263883889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046842489169796</v>
+        <v>1.04561930205965</v>
       </c>
       <c r="J24">
-        <v>1.022528922243215</v>
+        <v>1.067677377590228</v>
       </c>
       <c r="K24">
-        <v>1.031259651232904</v>
+        <v>1.065591797785604</v>
       </c>
       <c r="L24">
-        <v>1.024830473832029</v>
+        <v>1.069774217510292</v>
       </c>
       <c r="M24">
-        <v>1.033586183036901</v>
+        <v>1.078637358048129</v>
       </c>
       <c r="N24">
-        <v>1.023981030598507</v>
+        <v>1.069193601930713</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010129596973506</v>
+        <v>1.064389292914627</v>
       </c>
       <c r="D25">
-        <v>1.029257257315413</v>
+        <v>1.064414051100424</v>
       </c>
       <c r="E25">
-        <v>1.023980884744109</v>
+        <v>1.068908260166223</v>
       </c>
       <c r="F25">
-        <v>1.033206053254406</v>
+        <v>1.0778623741588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052014012202682</v>
+        <v>1.046325364956648</v>
       </c>
       <c r="J25">
-        <v>1.034320803392119</v>
+        <v>1.069815283349584</v>
       </c>
       <c r="K25">
-        <v>1.041417755851441</v>
+        <v>1.067379288905915</v>
       </c>
       <c r="L25">
-        <v>1.036217994412074</v>
+        <v>1.071860250021428</v>
       </c>
       <c r="M25">
-        <v>1.045309864571927</v>
+        <v>1.080788327219139</v>
       </c>
       <c r="N25">
-        <v>1.03578965757119</v>
+        <v>1.071334543761468</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_220/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_220/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066563650209148</v>
+        <v>1.021588977964554</v>
       </c>
       <c r="D2">
-        <v>1.066085238253936</v>
+        <v>1.038053116015878</v>
       </c>
       <c r="E2">
-        <v>1.070818463736863</v>
+        <v>1.033736685810612</v>
       </c>
       <c r="F2">
-        <v>1.079822210036905</v>
+        <v>1.043204540228723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04687957465538</v>
+        <v>1.055833422681355</v>
       </c>
       <c r="J2">
-        <v>1.071513011321767</v>
+        <v>1.043142597783605</v>
       </c>
       <c r="K2">
-        <v>1.068796736202118</v>
+        <v>1.049006593524017</v>
       </c>
       <c r="L2">
-        <v>1.073517287388646</v>
+        <v>1.044745202033563</v>
       </c>
       <c r="M2">
-        <v>1.082497255433946</v>
+        <v>1.054093075413688</v>
       </c>
       <c r="N2">
-        <v>1.073034682702104</v>
+        <v>1.044623979922586</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068139078074619</v>
+        <v>1.029535692127191</v>
       </c>
       <c r="D3">
-        <v>1.067295218899686</v>
+        <v>1.044158138168144</v>
       </c>
       <c r="E3">
-        <v>1.072202789482804</v>
+        <v>1.040515676710229</v>
       </c>
       <c r="F3">
-        <v>1.081242621272449</v>
+        <v>1.050153635187284</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047276844753416</v>
+        <v>1.058449080311822</v>
       </c>
       <c r="J3">
-        <v>1.072741523228966</v>
+        <v>1.049252333848578</v>
       </c>
       <c r="K3">
-        <v>1.069821256481318</v>
+        <v>1.05425554301261</v>
       </c>
       <c r="L3">
-        <v>1.074716644213259</v>
+        <v>1.050655124634324</v>
       </c>
       <c r="M3">
-        <v>1.083734346252194</v>
+        <v>1.06018262015299</v>
       </c>
       <c r="N3">
-        <v>1.074264939237124</v>
+        <v>1.050742392513568</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069156995402744</v>
+        <v>1.034520975456862</v>
       </c>
       <c r="D4">
-        <v>1.068076600552439</v>
+        <v>1.04798965950583</v>
       </c>
       <c r="E4">
-        <v>1.07309736029562</v>
+        <v>1.044773974627449</v>
       </c>
       <c r="F4">
-        <v>1.082160564131754</v>
+        <v>1.054519397203164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047531545720008</v>
+        <v>1.060074221199273</v>
       </c>
       <c r="J4">
-        <v>1.073534558982527</v>
+        <v>1.053081035738624</v>
       </c>
       <c r="K4">
-        <v>1.070482064529698</v>
+        <v>1.057541439357214</v>
       </c>
       <c r="L4">
-        <v>1.075490993015607</v>
+        <v>1.054360457470218</v>
       </c>
       <c r="M4">
-        <v>1.084533137683098</v>
+        <v>1.064001506434081</v>
       </c>
       <c r="N4">
-        <v>1.075059101192417</v>
+        <v>1.054576531599456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069584579455635</v>
+        <v>1.036581427440243</v>
       </c>
       <c r="D5">
-        <v>1.068404726126916</v>
+        <v>1.04957351820908</v>
       </c>
       <c r="E5">
-        <v>1.07347316165021</v>
+        <v>1.046535195993717</v>
       </c>
       <c r="F5">
-        <v>1.082546196440489</v>
+        <v>1.05632520293122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04763805949215</v>
+        <v>1.060742047633211</v>
       </c>
       <c r="J5">
-        <v>1.073867504087265</v>
+        <v>1.05466239135163</v>
       </c>
       <c r="K5">
-        <v>1.070759364566207</v>
+        <v>1.058897758946739</v>
       </c>
       <c r="L5">
-        <v>1.075816124526414</v>
+        <v>1.055891287994119</v>
       </c>
       <c r="M5">
-        <v>1.084868551137818</v>
+        <v>1.065579464732179</v>
       </c>
       <c r="N5">
-        <v>1.075392519117393</v>
+        <v>1.056160132918816</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069656352509453</v>
+        <v>1.036925372420441</v>
       </c>
       <c r="D6">
-        <v>1.068459798474254</v>
+        <v>1.049837919142422</v>
       </c>
       <c r="E6">
-        <v>1.073536244339181</v>
+        <v>1.046829261342635</v>
       </c>
       <c r="F6">
-        <v>1.082610930103426</v>
+        <v>1.056626720214457</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047655910704086</v>
+        <v>1.060853297040194</v>
       </c>
       <c r="J6">
-        <v>1.073923380995274</v>
+        <v>1.054926297106255</v>
       </c>
       <c r="K6">
-        <v>1.070805895074229</v>
+        <v>1.05912405896764</v>
       </c>
       <c r="L6">
-        <v>1.075870691975519</v>
+        <v>1.056146786741949</v>
       </c>
       <c r="M6">
-        <v>1.084924845337418</v>
+        <v>1.065842841496567</v>
       </c>
       <c r="N6">
-        <v>1.07544847537702</v>
+        <v>1.056424413449883</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069162710160498</v>
+        <v>1.0345486435321</v>
       </c>
       <c r="D7">
-        <v>1.068080986418885</v>
+        <v>1.04801092691668</v>
       </c>
       <c r="E7">
-        <v>1.073102382849143</v>
+        <v>1.044797619814136</v>
       </c>
       <c r="F7">
-        <v>1.082165718025963</v>
+        <v>1.054543640422506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047532971169701</v>
+        <v>1.060083204235034</v>
       </c>
       <c r="J7">
-        <v>1.073539009560563</v>
+        <v>1.053102274772212</v>
       </c>
       <c r="K7">
-        <v>1.070485771799173</v>
+        <v>1.057559659330009</v>
       </c>
       <c r="L7">
-        <v>1.075495339021771</v>
+        <v>1.054381016221524</v>
       </c>
       <c r="M7">
-        <v>1.08453762105251</v>
+        <v>1.064022697268148</v>
       </c>
       <c r="N7">
-        <v>1.075063558090784</v>
+        <v>1.054597800794908</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.067096386912575</v>
+        <v>1.024308436459798</v>
       </c>
       <c r="D8">
-        <v>1.066494482479499</v>
+        <v>1.040141910583614</v>
       </c>
       <c r="E8">
-        <v>1.071286551401341</v>
+        <v>1.036055294900545</v>
       </c>
       <c r="F8">
-        <v>1.080302488341335</v>
+        <v>1.045581194898378</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047014323866277</v>
+        <v>1.056731813735103</v>
       </c>
       <c r="J8">
-        <v>1.071928588501129</v>
+        <v>1.045234256343895</v>
       </c>
       <c r="K8">
-        <v>1.06914342070798</v>
+        <v>1.050804260401044</v>
       </c>
       <c r="L8">
-        <v>1.073922974367812</v>
+        <v>1.046768056278775</v>
       </c>
       <c r="M8">
-        <v>1.082915689358858</v>
+        <v>1.056177206357793</v>
       </c>
       <c r="N8">
-        <v>1.073450850048728</v>
+        <v>1.046718608877947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063443478731376</v>
+        <v>1.004954459813914</v>
       </c>
       <c r="D9">
-        <v>1.063686693299737</v>
+        <v>1.025288786366489</v>
       </c>
       <c r="E9">
-        <v>1.068077495135307</v>
+        <v>1.019582914790323</v>
       </c>
       <c r="F9">
-        <v>1.077010081093713</v>
+        <v>1.028699504057191</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046082226498904</v>
+        <v>1.05027308483515</v>
       </c>
       <c r="J9">
-        <v>1.069076038938988</v>
+        <v>1.030333468289701</v>
       </c>
       <c r="K9">
-        <v>1.066761522139694</v>
+        <v>1.037984474893801</v>
       </c>
       <c r="L9">
-        <v>1.071138864171428</v>
+        <v>1.032366066409992</v>
       </c>
       <c r="M9">
-        <v>1.080044436885525</v>
+        <v>1.041343501146824</v>
       </c>
       <c r="N9">
-        <v>1.070594249539017</v>
+        <v>1.031796659995573</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.060999762150454</v>
+        <v>0.9909987305416003</v>
       </c>
       <c r="D10">
-        <v>1.061806310102497</v>
+        <v>1.014601671317536</v>
       </c>
       <c r="E10">
-        <v>1.065931446875804</v>
+        <v>1.007748032295204</v>
       </c>
       <c r="F10">
-        <v>1.074808579832095</v>
+        <v>1.016575027725143</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045448460490522</v>
+        <v>1.045536418085234</v>
       </c>
       <c r="J10">
-        <v>1.067164007983881</v>
+        <v>1.019574086864723</v>
       </c>
       <c r="K10">
-        <v>1.065162170622696</v>
+        <v>1.028712199566542</v>
       </c>
       <c r="L10">
-        <v>1.069273405398054</v>
+        <v>1.021978788724926</v>
       </c>
       <c r="M10">
-        <v>1.078121018869991</v>
+        <v>1.030651327758701</v>
       </c>
       <c r="N10">
-        <v>1.068679503280641</v>
+        <v>1.021021999014853</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059939486098726</v>
+        <v>0.9846600826856866</v>
       </c>
       <c r="D11">
-        <v>1.060989984414047</v>
+        <v>1.009755712346169</v>
       </c>
       <c r="E11">
-        <v>1.065000509691653</v>
+        <v>1.002385098667401</v>
       </c>
       <c r="F11">
-        <v>1.073853657822489</v>
+        <v>1.011082132326867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045171065816826</v>
+        <v>1.043367606216603</v>
       </c>
       <c r="J11">
-        <v>1.066333538948277</v>
+        <v>1.014685243616607</v>
       </c>
       <c r="K11">
-        <v>1.064466852789643</v>
+        <v>1.024495965850095</v>
       </c>
       <c r="L11">
-        <v>1.068463331196344</v>
+        <v>1.017262175256734</v>
       </c>
       <c r="M11">
-        <v>1.077285879842455</v>
+        <v>1.025798038883436</v>
       </c>
       <c r="N11">
-        <v>1.06784785488375</v>
+        <v>1.016126213048567</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.059545322109272</v>
+        <v>0.9822566120717544</v>
       </c>
       <c r="D12">
-        <v>1.060686441343392</v>
+        <v>1.007919703986673</v>
       </c>
       <c r="E12">
-        <v>1.064654457243028</v>
+        <v>1.000353681304726</v>
       </c>
       <c r="F12">
-        <v>1.073498700330574</v>
+        <v>1.009001696942579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045067579936963</v>
+        <v>1.042542762460518</v>
       </c>
       <c r="J12">
-        <v>1.06602467543129</v>
+        <v>1.012831360950184</v>
       </c>
       <c r="K12">
-        <v>1.064208155568148</v>
+        <v>1.022896731747026</v>
       </c>
       <c r="L12">
-        <v>1.068162077965917</v>
+        <v>1.015474108474503</v>
       </c>
       <c r="M12">
-        <v>1.076975321207296</v>
+        <v>1.023958447048887</v>
       </c>
       <c r="N12">
-        <v>1.067538552745142</v>
+        <v>1.014269697656114</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.059629886731578</v>
+        <v>0.9827744635533863</v>
       </c>
       <c r="D13">
-        <v>1.060751567104429</v>
+        <v>1.008315219477551</v>
       </c>
       <c r="E13">
-        <v>1.06472869860317</v>
+        <v>1.000791272412412</v>
       </c>
       <c r="F13">
-        <v>1.073574851672586</v>
+        <v>1.009449837287758</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045089798382272</v>
+        <v>1.042720592670423</v>
       </c>
       <c r="J13">
-        <v>1.066090945491867</v>
+        <v>1.013230802199639</v>
       </c>
       <c r="K13">
-        <v>1.064263666344824</v>
+        <v>1.02324132341712</v>
       </c>
       <c r="L13">
-        <v>1.068226714016331</v>
+        <v>1.015859345560614</v>
       </c>
       <c r="M13">
-        <v>1.077041953082086</v>
+        <v>1.02435477174186</v>
       </c>
       <c r="N13">
-        <v>1.067604916916806</v>
+        <v>1.014669706157959</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059906911176495</v>
+        <v>0.9844624398077543</v>
       </c>
       <c r="D14">
-        <v>1.060964900084943</v>
+        <v>1.009604701862178</v>
       </c>
       <c r="E14">
-        <v>1.064971910257129</v>
+        <v>1.002218006988885</v>
       </c>
       <c r="F14">
-        <v>1.073824322213067</v>
+        <v>1.010911004353525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045162520821441</v>
+        <v>1.043299826826684</v>
       </c>
       <c r="J14">
-        <v>1.066308016201096</v>
+        <v>1.014532796614634</v>
       </c>
       <c r="K14">
-        <v>1.064445477507846</v>
+        <v>1.02436446685937</v>
       </c>
       <c r="L14">
-        <v>1.068438436807059</v>
+        <v>1.017115129941088</v>
       </c>
       <c r="M14">
-        <v>1.07726021616789</v>
+        <v>1.025646750312615</v>
       </c>
       <c r="N14">
-        <v>1.06782229589134</v>
+        <v>1.015973549554365</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060077551012977</v>
+        <v>0.9854958144314143</v>
       </c>
       <c r="D15">
-        <v>1.061096298523217</v>
+        <v>1.010394320510641</v>
       </c>
       <c r="E15">
-        <v>1.065121726170926</v>
+        <v>1.003091730862979</v>
       </c>
       <c r="F15">
-        <v>1.073977994961311</v>
+        <v>1.011805842704219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045207267910769</v>
+        <v>1.043654111131498</v>
       </c>
       <c r="J15">
-        <v>1.066441708674532</v>
+        <v>1.015329859925975</v>
       </c>
       <c r="K15">
-        <v>1.064557440829529</v>
+        <v>1.025051988015067</v>
       </c>
       <c r="L15">
-        <v>1.06856883886546</v>
+        <v>1.01788397145478</v>
       </c>
       <c r="M15">
-        <v>1.077394648552125</v>
+        <v>1.026437789981574</v>
       </c>
       <c r="N15">
-        <v>1.067956178223423</v>
+        <v>1.016771744787032</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.061070083425307</v>
+        <v>0.9914127983768714</v>
       </c>
       <c r="D16">
-        <v>1.061860441975018</v>
+        <v>1.01491841801378</v>
       </c>
       <c r="E16">
-        <v>1.065993193954658</v>
+        <v>1.008098636716756</v>
       </c>
       <c r="F16">
-        <v>1.074871919265396</v>
+        <v>1.016934156255166</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045466807438392</v>
+        <v>1.045677745357733</v>
       </c>
       <c r="J16">
-        <v>1.067219069161906</v>
+        <v>1.019893418776526</v>
       </c>
       <c r="K16">
-        <v>1.065208257295684</v>
+        <v>1.028987538146339</v>
       </c>
       <c r="L16">
-        <v>1.069327117889296</v>
+        <v>1.022286938534312</v>
       </c>
       <c r="M16">
-        <v>1.078176395502955</v>
+        <v>1.030968445380249</v>
       </c>
       <c r="N16">
-        <v>1.068734642651855</v>
+        <v>1.021341784414599</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061692095210015</v>
+        <v>0.9950421528308004</v>
       </c>
       <c r="D17">
-        <v>1.062339200023303</v>
+        <v>1.017695679598047</v>
       </c>
       <c r="E17">
-        <v>1.066539386220305</v>
+        <v>1.011173149854643</v>
       </c>
       <c r="F17">
-        <v>1.07543220504439</v>
+        <v>1.020083563746894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045628812539164</v>
+        <v>1.046914547898675</v>
       </c>
       <c r="J17">
-        <v>1.06770599954731</v>
+        <v>1.0226921961019</v>
       </c>
       <c r="K17">
-        <v>1.065615746363558</v>
+        <v>1.031400393869355</v>
       </c>
       <c r="L17">
-        <v>1.069802140483109</v>
+        <v>1.024988068940925</v>
       </c>
       <c r="M17">
-        <v>1.078666147446314</v>
+        <v>1.033748386230195</v>
       </c>
       <c r="N17">
-        <v>1.069222264534257</v>
+        <v>1.024144536324799</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062054699274124</v>
+        <v>0.9971309025998621</v>
       </c>
       <c r="D18">
-        <v>1.062618248623853</v>
+        <v>1.019294777755086</v>
       </c>
       <c r="E18">
-        <v>1.066857808972318</v>
+        <v>1.012943729984482</v>
       </c>
       <c r="F18">
-        <v>1.07575885088111</v>
+        <v>1.021897392266748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045723021032231</v>
+        <v>1.047624702968089</v>
       </c>
       <c r="J18">
-        <v>1.067989772575552</v>
+        <v>1.024302740892805</v>
       </c>
       <c r="K18">
-        <v>1.065853159266049</v>
+        <v>1.032788567089272</v>
       </c>
       <c r="L18">
-        <v>1.070078989946151</v>
+        <v>1.026542716541954</v>
       </c>
       <c r="M18">
-        <v>1.078951591369044</v>
+        <v>1.03534855794204</v>
       </c>
       <c r="N18">
-        <v>1.069506440552749</v>
+        <v>1.025757368274039</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062178303442791</v>
+        <v>0.9978384594681662</v>
       </c>
       <c r="D19">
-        <v>1.062713362778476</v>
+        <v>1.01983658554858</v>
       </c>
       <c r="E19">
-        <v>1.066966355669457</v>
+        <v>1.013543697104719</v>
       </c>
       <c r="F19">
-        <v>1.075870201875295</v>
+        <v>1.022512033642201</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045755095214499</v>
+        <v>1.04786498285692</v>
       </c>
       <c r="J19">
-        <v>1.068086490481154</v>
+        <v>1.024848270240259</v>
       </c>
       <c r="K19">
-        <v>1.06593406556604</v>
+        <v>1.033258722429982</v>
       </c>
       <c r="L19">
-        <v>1.070173350823663</v>
+        <v>1.027069361095489</v>
       </c>
       <c r="M19">
-        <v>1.079048883257651</v>
+        <v>1.035890651279239</v>
       </c>
       <c r="N19">
-        <v>1.06960329580887</v>
+        <v>1.02630367233574</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.061625380498045</v>
+        <v>0.9946557044773636</v>
       </c>
       <c r="D20">
-        <v>1.062287854848319</v>
+        <v>1.017399882115816</v>
       </c>
       <c r="E20">
-        <v>1.066480801768462</v>
+        <v>1.010845659169791</v>
       </c>
       <c r="F20">
-        <v>1.075372108225569</v>
+        <v>1.01974808312694</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045611460564179</v>
+        <v>1.046783024962479</v>
       </c>
       <c r="J20">
-        <v>1.067653781945885</v>
+        <v>1.022394205653034</v>
       </c>
       <c r="K20">
-        <v>1.065572054469121</v>
+        <v>1.03114352338318</v>
       </c>
       <c r="L20">
-        <v>1.069751198191834</v>
+        <v>1.02470044441461</v>
       </c>
       <c r="M20">
-        <v>1.078613624516771</v>
+        <v>1.033452352485983</v>
       </c>
       <c r="N20">
-        <v>1.069169972777849</v>
+        <v>1.023846122695316</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.059825343580683</v>
+        <v>0.9839667660544259</v>
       </c>
       <c r="D21">
-        <v>1.060902087820328</v>
+        <v>1.009226003229383</v>
       </c>
       <c r="E21">
-        <v>1.064900297753655</v>
+        <v>1.001798987679556</v>
       </c>
       <c r="F21">
-        <v>1.07375086651358</v>
+        <v>1.010481866590277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045141118298291</v>
+        <v>1.043129801765741</v>
       </c>
       <c r="J21">
-        <v>1.066244105124878</v>
+        <v>1.014150469000143</v>
       </c>
       <c r="K21">
-        <v>1.064391950441208</v>
+        <v>1.024034669176764</v>
       </c>
       <c r="L21">
-        <v>1.068376099597664</v>
+        <v>1.016746357653923</v>
       </c>
       <c r="M21">
-        <v>1.077195952872507</v>
+        <v>1.025267341162038</v>
       </c>
       <c r="N21">
-        <v>1.067758294054063</v>
+        <v>1.015590678990808</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058691673088401</v>
+        <v>0.9769598424449312</v>
       </c>
       <c r="D22">
-        <v>1.060028926819788</v>
+        <v>1.003876527926966</v>
       </c>
       <c r="E22">
-        <v>1.06390505853464</v>
+        <v>0.9958809574523372</v>
       </c>
       <c r="F22">
-        <v>1.072730036953697</v>
+        <v>1.00442145812027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044842795331121</v>
+        <v>1.040720561991851</v>
       </c>
       <c r="J22">
-        <v>1.065355523117308</v>
+        <v>1.008745690334251</v>
       </c>
       <c r="K22">
-        <v>1.063647508831063</v>
+        <v>1.019371579224352</v>
       </c>
       <c r="L22">
-        <v>1.067509459456978</v>
+        <v>1.011534457403053</v>
       </c>
       <c r="M22">
-        <v>1.076302573060482</v>
+        <v>1.019905830991277</v>
       </c>
       <c r="N22">
-        <v>1.066868450158121</v>
+        <v>1.010178224919274</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C23">
-        <v>1.059292838274059</v>
+        <v>0.9807032005362648</v>
       </c>
       <c r="D23">
-        <v>1.060491985916669</v>
+        <v>1.006733503172148</v>
       </c>
       <c r="E23">
-        <v>1.064432799804379</v>
+        <v>0.9990413526066064</v>
       </c>
       <c r="F23">
-        <v>1.073271341968407</v>
+        <v>1.007657763693875</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045001189439153</v>
+        <v>1.042008969039287</v>
       </c>
       <c r="J23">
-        <v>1.065826794266327</v>
+        <v>1.011633138878588</v>
       </c>
       <c r="K23">
-        <v>1.064042387044356</v>
+        <v>1.021862989113919</v>
       </c>
       <c r="L23">
-        <v>1.067969079615733</v>
+        <v>1.014318571997307</v>
       </c>
       <c r="M23">
-        <v>1.076776365802369</v>
+        <v>1.022769696976597</v>
       </c>
       <c r="N23">
-        <v>1.067340390566227</v>
+        <v>1.013069773971738</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061655526637965</v>
+        <v>0.9948304106341311</v>
       </c>
       <c r="D24">
-        <v>1.062311056149868</v>
+        <v>1.017533604404909</v>
       </c>
       <c r="E24">
-        <v>1.066507274061188</v>
+        <v>1.010993708095941</v>
       </c>
       <c r="F24">
-        <v>1.075399263883889</v>
+        <v>1.019899743704576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04561930205965</v>
+        <v>1.046842489169795</v>
       </c>
       <c r="J24">
-        <v>1.067677377590228</v>
+        <v>1.022528922243214</v>
       </c>
       <c r="K24">
-        <v>1.065591797785604</v>
+        <v>1.031259651232903</v>
       </c>
       <c r="L24">
-        <v>1.069774217510292</v>
+        <v>1.024830473832028</v>
       </c>
       <c r="M24">
-        <v>1.078637358048129</v>
+        <v>1.0335861830369</v>
       </c>
       <c r="N24">
-        <v>1.069193601930713</v>
+        <v>1.023981030598506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.064389292914627</v>
+        <v>1.010129596973506</v>
       </c>
       <c r="D25">
-        <v>1.064414051100424</v>
+        <v>1.029257257315413</v>
       </c>
       <c r="E25">
-        <v>1.068908260166223</v>
+        <v>1.02398088474411</v>
       </c>
       <c r="F25">
-        <v>1.0778623741588</v>
+        <v>1.033206053254406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046325364956648</v>
+        <v>1.052014012202682</v>
       </c>
       <c r="J25">
-        <v>1.069815283349584</v>
+        <v>1.034320803392119</v>
       </c>
       <c r="K25">
-        <v>1.067379288905915</v>
+        <v>1.041417755851441</v>
       </c>
       <c r="L25">
-        <v>1.071860250021428</v>
+        <v>1.036217994412075</v>
       </c>
       <c r="M25">
-        <v>1.080788327219139</v>
+        <v>1.045309864571928</v>
       </c>
       <c r="N25">
-        <v>1.071334543761468</v>
+        <v>1.035789657571191</v>
       </c>
     </row>
   </sheetData>
